--- a/2019年1月贵州战团汇总数据.xlsx
+++ b/2019年1月贵州战团汇总数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -176,11 +176,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.00;_糿"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00;_糿"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -224,7 +224,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,6 +269,36 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,29 +314,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,41 +323,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,18 +337,25 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,25 +366,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +406,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,127 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +484,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,19 +550,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,21 +850,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -879,40 +864,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,6 +908,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -954,10 +954,10 @@
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -966,134 +966,134 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1565,15 +1565,15 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="15.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.40833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.44166666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.625" style="1" customWidth="1"/>
     <col min="5" max="17" width="8.625" style="1" customWidth="1"/>
     <col min="18" max="18" width="9" style="1" customWidth="1"/>
     <col min="19" max="19" width="11" style="1" customWidth="1"/>
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E2" s="5">
         <f>SUM(S10,S18,S26,S34,S42,V50)</f>
-        <v>55612</v>
+        <v>63643</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2460,12 +2460,24 @@
       <c r="B21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
+      <c r="D21" s="13">
+        <v>3010.9</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7</v>
+      </c>
+      <c r="F21" s="11">
+        <v>2</v>
+      </c>
+      <c r="G21" s="13">
+        <v>3819.3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>10</v>
+      </c>
       <c r="I21" s="11"/>
       <c r="J21" s="13"/>
       <c r="K21" s="14"/>
@@ -2478,7 +2490,7 @@
       <c r="R21" s="31"/>
       <c r="S21" s="32">
         <f t="shared" ref="S21:S26" si="4">SUM(D21,G21,J21,M21,P21)</f>
-        <v>0</v>
+        <v>6830.2</v>
       </c>
       <c r="T21" s="33"/>
     </row>
@@ -2487,12 +2499,24 @@
       <c r="B22" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
+      <c r="C22" s="11">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13">
+        <v>601</v>
+      </c>
+      <c r="E22" s="14">
+        <v>4</v>
+      </c>
+      <c r="F22" s="11">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>599.8</v>
+      </c>
+      <c r="H22" s="14">
+        <v>4</v>
+      </c>
       <c r="I22" s="11"/>
       <c r="J22" s="13"/>
       <c r="K22" s="14"/>
@@ -2505,7 +2529,7 @@
       <c r="R22" s="31"/>
       <c r="S22" s="32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1200.8</v>
       </c>
       <c r="T22" s="33"/>
     </row>
@@ -2589,29 +2613,29 @@
         <v>18</v>
       </c>
       <c r="B26" s="16"/>
-      <c r="C26" s="17" t="str">
+      <c r="C26" s="17">
         <f>IF(SUM(C21:C25)=0,"",SUM(C21:C25))</f>
-        <v/>
-      </c>
-      <c r="D26" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="D26" s="18">
         <f t="shared" ref="D26:Q26" si="5">IF(SUM(D21:D25)=0,"",SUM(D21:D25))</f>
-        <v/>
-      </c>
-      <c r="E26" s="18" t="str">
+        <v>3611.9</v>
+      </c>
+      <c r="E26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F26" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="F26" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="G26" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="G26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H26" s="18" t="str">
+        <v>4419.1</v>
+      </c>
+      <c r="H26" s="18">
         <f t="shared" si="5"/>
-        <v/>
+        <v>14</v>
       </c>
       <c r="I26" s="17" t="str">
         <f t="shared" si="5"/>
@@ -2652,7 +2676,7 @@
       <c r="R26" s="34"/>
       <c r="S26" s="32">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8031</v>
       </c>
       <c r="T26" s="22"/>
     </row>
@@ -3659,6 +3683,7 @@
     <mergeCell ref="A44:A49"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
 </worksheet>
 </file>

--- a/2019年1月贵州战团汇总数据.xlsx
+++ b/2019年1月贵州战团汇总数据.xlsx
@@ -8,8 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -177,9 +176,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00;_糿"/>
   </numFmts>
   <fonts count="27">
@@ -219,42 +218,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -269,8 +232,16 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -278,6 +249,50 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,31 +328,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -346,6 +337,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,7 +405,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,13 +435,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,7 +453,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,13 +489,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +531,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,61 +579,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -846,6 +845,15 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -879,6 +887,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -890,6 +907,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,33 +937,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -951,149 +950,149 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1561,11 +1560,11 @@
   <dimension ref="A1:AT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L22" sqref="L22"/>
+      <selection pane="bottomRight" activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1616,7 +1615,7 @@
       </c>
       <c r="E2" s="5">
         <f>SUM(S10,S18,S26,S34,S42,V50)</f>
-        <v>63643</v>
+        <v>84908.9</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2478,19 +2477,37 @@
       <c r="H21" s="14">
         <v>10</v>
       </c>
-      <c r="I21" s="11"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="14"/>
+      <c r="I21" s="11">
+        <v>3</v>
+      </c>
+      <c r="J21" s="13">
+        <v>5155.8</v>
+      </c>
+      <c r="K21" s="14">
+        <v>13</v>
+      </c>
+      <c r="L21" s="11">
+        <v>3</v>
+      </c>
+      <c r="M21" s="13">
+        <v>8958.7</v>
+      </c>
+      <c r="N21" s="14">
+        <v>15</v>
+      </c>
+      <c r="O21" s="11">
+        <v>3</v>
+      </c>
+      <c r="P21" s="13">
+        <v>5444</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>11</v>
+      </c>
       <c r="R21" s="31"/>
       <c r="S21" s="32">
         <f t="shared" ref="S21:S26" si="4">SUM(D21,G21,J21,M21,P21)</f>
-        <v>6830.2</v>
+        <v>26388.7</v>
       </c>
       <c r="T21" s="33"/>
     </row>
@@ -2517,19 +2534,37 @@
       <c r="H22" s="14">
         <v>4</v>
       </c>
-      <c r="I22" s="11"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="14"/>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
+        <v>343.9</v>
+      </c>
+      <c r="K22" s="14">
+        <v>3</v>
+      </c>
+      <c r="L22" s="11">
+        <v>1</v>
+      </c>
+      <c r="M22" s="13">
+        <v>602.3</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3</v>
+      </c>
+      <c r="O22" s="11">
+        <v>1</v>
+      </c>
+      <c r="P22" s="13">
+        <v>761.2</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>5</v>
+      </c>
       <c r="R22" s="31"/>
       <c r="S22" s="32">
         <f t="shared" si="4"/>
-        <v>1200.8</v>
+        <v>2908.2</v>
       </c>
       <c r="T22" s="33"/>
     </row>
@@ -2637,46 +2672,46 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="I26" s="17" t="str">
+      <c r="I26" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J26" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="J26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="K26" s="18" t="str">
+        <v>5499.7</v>
+      </c>
+      <c r="K26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="L26" s="17" t="str">
+        <v>16</v>
+      </c>
+      <c r="L26" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M26" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="M26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N26" s="18" t="str">
+        <v>9561</v>
+      </c>
+      <c r="N26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="O26" s="17" t="str">
+        <v>18</v>
+      </c>
+      <c r="O26" s="17">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="P26" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="P26" s="18">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="Q26" s="18" t="str">
+        <v>6205.2</v>
+      </c>
+      <c r="Q26" s="18">
         <f t="shared" si="5"/>
-        <v/>
+        <v>16</v>
       </c>
       <c r="R26" s="34"/>
       <c r="S26" s="32">
         <f t="shared" si="4"/>
-        <v>8031</v>
+        <v>29296.9</v>
       </c>
       <c r="T26" s="22"/>
     </row>
@@ -3694,23 +3729,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.509027777777778" footer="0.509027777777778"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/2019年1月贵州战团汇总数据.xlsx
+++ b/2019年1月贵州战团汇总数据.xlsx
@@ -175,11 +175,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00;_糿"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00;_糿"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -216,15 +216,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -238,9 +230,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,23 +304,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +333,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -304,69 +364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +405,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,13 +447,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,49 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +567,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,79 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,6 +845,65 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -873,30 +932,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -910,189 +945,154 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1560,11 +1560,11 @@
   <dimension ref="A1:AT52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AF16" sqref="AF16"/>
+      <selection pane="bottomRight" activeCell="R27" sqref="R27:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="E2" s="5">
         <f>SUM(S10,S18,S26,S34,S42,V50)</f>
-        <v>84908.9</v>
+        <v>112735.8</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -2819,25 +2819,55 @@
       <c r="B29" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
+      <c r="C29" s="11">
+        <v>3</v>
+      </c>
+      <c r="D29" s="13">
+        <v>6789.4</v>
+      </c>
+      <c r="E29" s="14">
+        <v>14</v>
+      </c>
+      <c r="F29" s="11">
+        <v>3</v>
+      </c>
+      <c r="G29" s="13">
+        <v>4152.7</v>
+      </c>
+      <c r="H29" s="14">
+        <v>12</v>
+      </c>
+      <c r="I29" s="11">
+        <v>3</v>
+      </c>
+      <c r="J29" s="25">
+        <v>5541.2</v>
+      </c>
+      <c r="K29" s="25">
+        <v>11</v>
+      </c>
+      <c r="L29" s="11">
+        <v>2</v>
+      </c>
+      <c r="M29" s="13">
+        <v>3258.2</v>
+      </c>
+      <c r="N29" s="14">
+        <v>9</v>
+      </c>
+      <c r="O29" s="11">
+        <v>2</v>
+      </c>
+      <c r="P29" s="13">
+        <v>4716.7</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>12</v>
+      </c>
       <c r="R29" s="31"/>
       <c r="S29" s="32">
         <f t="shared" ref="S29:S34" si="6">SUM(D29,G29,J29,M29,P29)</f>
-        <v>0</v>
+        <v>24458.2</v>
       </c>
       <c r="T29" s="33"/>
     </row>
@@ -2846,25 +2876,55 @@
       <c r="B30" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="25"/>
-      <c r="K30" s="25"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="14"/>
+      <c r="C30" s="11">
+        <v>1</v>
+      </c>
+      <c r="D30" s="13">
+        <v>769</v>
+      </c>
+      <c r="E30" s="14">
+        <v>4</v>
+      </c>
+      <c r="F30" s="11">
+        <v>1</v>
+      </c>
+      <c r="G30" s="13">
+        <v>580.2</v>
+      </c>
+      <c r="H30" s="14">
+        <v>5</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
+      <c r="J30" s="25">
+        <v>1318</v>
+      </c>
+      <c r="K30" s="25">
+        <v>6</v>
+      </c>
+      <c r="L30" s="11">
+        <v>1</v>
+      </c>
+      <c r="M30" s="13">
+        <v>85.9</v>
+      </c>
+      <c r="N30" s="14">
+        <v>2</v>
+      </c>
+      <c r="O30" s="11">
+        <v>1</v>
+      </c>
+      <c r="P30" s="13">
+        <v>615.6</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>5</v>
+      </c>
       <c r="R30" s="31"/>
       <c r="S30" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3368.7</v>
       </c>
       <c r="T30" s="33"/>
     </row>
@@ -2948,70 +3008,70 @@
         <v>18</v>
       </c>
       <c r="B34" s="16"/>
-      <c r="C34" s="17" t="str">
+      <c r="C34" s="17">
         <f>IF(SUM(C29:C33)=0,"",SUM(C29:C33))</f>
-        <v/>
-      </c>
-      <c r="D34" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="D34" s="18">
         <f t="shared" ref="D34:Q34" si="7">IF(SUM(D29:D33)=0,"",SUM(D29:D33))</f>
-        <v/>
-      </c>
-      <c r="E34" s="18" t="str">
+        <v>7558.4</v>
+      </c>
+      <c r="E34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="F34" s="17" t="str">
+        <v>18</v>
+      </c>
+      <c r="F34" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="G34" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="G34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="H34" s="18" t="str">
+        <v>4732.9</v>
+      </c>
+      <c r="H34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="I34" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="I34" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="J34" s="18" t="str">
+        <v>4</v>
+      </c>
+      <c r="J34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="K34" s="18" t="str">
+        <v>6859.2</v>
+      </c>
+      <c r="K34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="L34" s="17" t="str">
+        <v>17</v>
+      </c>
+      <c r="L34" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M34" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="M34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="N34" s="18" t="str">
+        <v>3344.1</v>
+      </c>
+      <c r="N34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="O34" s="17" t="str">
+        <v>11</v>
+      </c>
+      <c r="O34" s="17">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="P34" s="18" t="str">
+        <v>3</v>
+      </c>
+      <c r="P34" s="18">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="Q34" s="18" t="str">
+        <v>5332.3</v>
+      </c>
+      <c r="Q34" s="18">
         <f t="shared" si="7"/>
-        <v/>
+        <v>17</v>
       </c>
       <c r="R34" s="34"/>
       <c r="S34" s="32">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>27826.9</v>
       </c>
       <c r="T34" s="22"/>
     </row>
